--- a/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>112,56%</t>
+          <t>-31,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70,03%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 12,74</t>
+          <t>-10,06; 11,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 3,85</t>
+          <t>-21,63; 4,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 11,79</t>
+          <t>-16,8; 10,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 10,3</t>
+          <t>-0,26; 12,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 303,28</t>
+          <t>-0,34; 14,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 88,7</t>
+          <t>-55,11; 232,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 388,94</t>
+          <t>-82,36; 103,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 232,16</t>
+          <t>-65,95; 272,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 321,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 212,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>112,74%</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>203,14%</t>
+          <t>329,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>192,61%</t>
+          <t>123,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>120,02%</t>
+          <t>114,73%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>149,13%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 16,84</t>
+          <t>9,34; 24,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 13,61</t>
+          <t>0,51; 12,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,52</t>
+          <t>1,74; 16,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 14,63</t>
+          <t>-2,26; 12,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 282,22</t>
+          <t>3,96; 21,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,85; 578,11</t>
+          <t>91,17; 1057,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,95; 538,24</t>
+          <t>-7,96; 440,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 302,77</t>
+          <t>6,57; 346,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 238,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 409,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>552,64%</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>159,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>129,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>176,5%</t>
+          <t>84,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>435,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-16,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 18,87</t>
+          <t>2,66; 23,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 10,1</t>
+          <t>0,0; 19,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 17,39</t>
+          <t>-9,57; 18,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 17,27</t>
+          <t>0,08; 24,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-19,84; 12,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-45,82; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 1071,18</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>118,04%</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>142,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>145,15%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108,09%</t>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90,03%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,58</t>
+          <t>2,8; 14,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,48</t>
+          <t>-9,64; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,91</t>
+          <t>-4,12; 10,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,21</t>
+          <t>1,81; 10,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 240,87</t>
+          <t>2,95; 13,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 167,33</t>
+          <t>5,0; 347,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 299,86</t>
+          <t>-62,37; 151,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,03; 199,22</t>
+          <t>-29,11; 195,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 227,23</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 205,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-31,24%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>94,26%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>70,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.103301013687917</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.129012039921495</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.596449824391551</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.542867496605862</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.301835939468408</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4023778413752971</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1167326376834609</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4181349067676323</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7892966758766067</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6286592792798585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 11,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,63; 4,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 10,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 12,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 14,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-55,11; 232,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-82,36; 103,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-65,95; 272,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 321,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 212,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.05933886927048</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.77624551714162</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.11255018850456</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.047793212852724</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.9807175964756067</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5511319823969125</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.795676172312467</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.628774596062924</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1725374897925478</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1042863236593441</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.33498956566225</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.14954099236596</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.53950228938274</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.8778785485911</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.69421293473071</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.321533180692313</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.489043407601921</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.869848675063062</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.922649624385226</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.092817412972261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,78</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>329,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>123,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>114,73%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>57,76%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>149,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 24,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 12,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 16,09</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 12,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 21,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>91,17; 1057,96</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 440,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 346,36</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 238,54</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>20,21; 409,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.78777181987287</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.192791586112793</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.379455143229388</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.341790402840595</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>13.38064410970524</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.299237413441261</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.352156003069171</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9888805319829439</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5067325372341906</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.549124565093166</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,19</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>84,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>435,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-16,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.338587781645648</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.724811924078051</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4071805045292559</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.987696570217357</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.351330927204083</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.9116605529479406</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01387742174769012</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03172876705933014</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2789410716131801</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.290041823780691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 23,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; 18,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 24,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 12,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.95477466394523</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.15207477700118</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.03949103727595</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.55034426551402</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>22.51404642175288</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>10.57962604619096</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.731035039062355</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.366346048454778</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.264848845974789</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.407593530304788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>142,07%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>63,87%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>90,03%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>87,76%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.5685710652009</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.10328666782115</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.531401352248045</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.24412091280093</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1242717342332181</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.8645381736209609</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>4.073096357985509</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.01255452712209145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 14,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; 5,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 10,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 10,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 13,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 347,92</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-62,37; 151,07</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,11; 195,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,36; 227,23</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>21,84; 205,73</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.660594525657651</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.626928000542236</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2617751670247686</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.78817024261384</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.96831916818741</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.41399164343153</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.97615726298362</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25.2670036138038</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.63296186128151</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.96499666817129</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.639181288095868</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.721572677136347</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.641196630483976</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.426800798471064</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.420731674520379</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4025325714558173</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6878000584948731</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7819682636589657</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8913311591698077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.801533745253186</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.80755783760535</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.020397127804727</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.142908754052562</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.25912877998109</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.04996819434943376</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.526536282273022</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2140701194653525</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09905652588626192</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2450223859620568</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.5661941187732</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.229271570467385</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.76462642280908</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.19466531862907</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.09957378721041</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.47917042245157</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.884678641260903</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.959113201441561</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.044441768468169</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.127683805062152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1099,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
